--- a/Documentos/Metas_Arquitetura.xlsx
+++ b/Documentos/Metas_Arquitetura.xlsx
@@ -40,9 +40,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Restante pro item</t>
-  </si>
-  <si>
     <t>Colaboradores</t>
   </si>
   <si>
@@ -95,13 +92,16 @@
   </si>
   <si>
     <t>Envio de SMS</t>
+  </si>
+  <si>
+    <t>Restante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <name val="Calibri"/>
@@ -172,14 +166,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF212121"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -290,19 +297,19 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,15 +618,15 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -636,45 +643,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2">
         <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUM(B2:B80)</f>
+        <v>199</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(C2:C80)</f>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10">
+        <f>(G2/F2)*100%</f>
+        <v>0.64824120603015079</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -683,9 +709,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -693,10 +719,20 @@
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <f>(G2*20)/60</f>
+        <v>43</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -705,9 +741,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -715,10 +751,16 @@
       <c r="C8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>22</v>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="B9">
         <v>13</v>
@@ -726,62 +768,65 @@
       <c r="C9">
         <v>13</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
-        <f>SUM(B2:B80)</f>
-        <v>199</v>
-      </c>
-      <c r="G10" s="4">
-        <f>SUM(C2:C80)</f>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="15">
+        <f>(F6/(F8*F9*F10))</f>
+        <v>6.1428571428571432</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="10">
-        <f>(G10/F10)*100%</f>
-        <v>0.77386934673366836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="B13">
         <v>40</v>
@@ -789,66 +834,17 @@
       <c r="C13">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9">
-        <f>(G10*20)/60</f>
-        <v>51.333333333333336</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E20" s="6" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="16">
+        <f>(F12*F9)</f>
+        <v>43</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="16">
-        <f>(F14/(F16*F17*F18))</f>
-        <v>7.3333333333333339</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E21" s="6"/>
-      <c r="F21" s="17">
-        <f>(F20*F17)</f>
-        <v>51.333333333333336</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>7</v>
       </c>

--- a/Documentos/Metas_Arquitetura.xlsx
+++ b/Documentos/Metas_Arquitetura.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(C2:C80)</f>
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="10">
         <f>(G2/F2)*100%</f>
-        <v>0.64824120603015079</v>
+        <v>0.60804020100502509</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="F6" s="9">
         <f>(G2*20)/60</f>
-        <v>43</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>6</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -818,7 +818,7 @@
       </c>
       <c r="F12" s="15">
         <f>(F6/(F8*F9*F10))</f>
-        <v>6.1428571428571432</v>
+        <v>5.7619047619047619</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>13</v>
@@ -837,7 +837,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="16">
         <f>(F12*F9)</f>
-        <v>43</v>
+        <v>40.333333333333336</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>12</v>

--- a/Documentos/Metas_Arquitetura.xlsx
+++ b/Documentos/Metas_Arquitetura.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos/Metas_Arquitetura.xlsx
+++ b/Documentos/Metas_Arquitetura.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(C2:C80)</f>
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
@@ -695,7 +695,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="10">
         <f>(G2/F2)*100%</f>
-        <v>0.60804020100502509</v>
+        <v>0.56783919597989951</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="F6" s="9">
         <f>(G2*20)/60</f>
-        <v>40.333333333333336</v>
+        <v>37.666666666666664</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>6</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="F12" s="15">
         <f>(F6/(F8*F9*F10))</f>
-        <v>5.7619047619047619</v>
+        <v>5.3809523809523805</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>13</v>
@@ -837,7 +837,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="16">
         <f>(F12*F9)</f>
-        <v>40.333333333333336</v>
+        <v>37.666666666666664</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>12</v>

--- a/Documentos/Metas_Arquitetura.xlsx
+++ b/Documentos/Metas_Arquitetura.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(C2:C80)</f>
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="10">
         <f>(G2/F2)*100%</f>
-        <v>0.56783919597989951</v>
+        <v>0.55276381909547734</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
       </c>
       <c r="F6" s="9">
         <f>(G2*20)/60</f>
-        <v>37.666666666666664</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>6</v>
@@ -811,14 +811,14 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="15">
         <f>(F6/(F8*F9*F10))</f>
-        <v>5.3809523809523805</v>
+        <v>5.2380952380952381</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>13</v>
@@ -837,7 +837,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="16">
         <f>(F12*F9)</f>
-        <v>37.666666666666664</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>12</v>
